--- a/Perceptual_Only/Eye_Tracker/LookTime/250ms/Tadpole_ET_summary_Perceptual_250ms.xlsx
+++ b/Perceptual_Only/Eye_Tracker/LookTime/250ms/Tadpole_ET_summary_Perceptual_250ms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="0-All" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18352" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19810" uniqueCount="113">
   <si>
     <t>Fixation Duration_apple_strawberry_a.BMP_correct_Sum</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>p015</t>
+  </si>
+  <si>
+    <t>P001</t>
   </si>
 </sst>
 </file>
@@ -708,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,6 +3587,253 @@
       </c>
       <c r="AO25">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>0.08</v>
+      </c>
+      <c r="C27">
+        <v>0.44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>1.9</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27">
+        <v>0.43</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>0.45</v>
+      </c>
+      <c r="J27">
+        <v>1.95</v>
+      </c>
+      <c r="K27">
+        <v>0.17</v>
+      </c>
+      <c r="L27">
+        <v>0.83</v>
+      </c>
+      <c r="M27">
+        <v>5.37</v>
+      </c>
+      <c r="N27">
+        <v>1.62</v>
+      </c>
+      <c r="O27">
+        <v>0.23</v>
+      </c>
+      <c r="P27">
+        <v>1.34</v>
+      </c>
+      <c r="Q27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R27">
+        <v>0.83</v>
+      </c>
+      <c r="S27">
+        <v>0.27</v>
+      </c>
+      <c r="T27">
+        <v>0.73</v>
+      </c>
+      <c r="U27">
+        <v>0.43</v>
+      </c>
+      <c r="V27">
+        <v>1.36</v>
+      </c>
+      <c r="W27">
+        <v>1.03</v>
+      </c>
+      <c r="X27">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y27">
+        <v>1.44</v>
+      </c>
+      <c r="Z27">
+        <v>1.3</v>
+      </c>
+      <c r="AA27">
+        <v>0.6</v>
+      </c>
+      <c r="AB27">
+        <v>1.59</v>
+      </c>
+      <c r="AC27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AD27">
+        <v>0.47</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27">
+        <v>4.91</v>
+      </c>
+      <c r="AG27">
+        <v>2.6</v>
+      </c>
+      <c r="AH27">
+        <v>1.08</v>
+      </c>
+      <c r="AI27">
+        <v>0.99</v>
+      </c>
+      <c r="AJ27">
+        <v>1.31</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27">
+        <v>1.85</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AO27">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -3593,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6469,6 +6719,253 @@
       </c>
       <c r="AO25">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27">
+        <v>0.12</v>
+      </c>
+      <c r="Q27">
+        <v>0.13</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27">
+        <v>0.04</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27">
+        <v>0.25</v>
+      </c>
+      <c r="X27">
+        <v>0.25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27">
+        <v>0.25</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27">
+        <v>0.18</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27">
+        <v>0.25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27">
+        <v>0.25</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO27">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -6478,10 +6975,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9354,6 +9851,253 @@
       </c>
       <c r="AO25" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27">
+        <v>0.04</v>
+      </c>
+      <c r="P27">
+        <v>0.25</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.05</v>
+      </c>
+      <c r="X27">
+        <v>0.15</v>
+      </c>
+      <c r="Y27">
+        <v>0.1</v>
+      </c>
+      <c r="Z27">
+        <v>0.1</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27">
+        <v>0.08</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27">
+        <v>0.25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27">
+        <v>0.09</v>
+      </c>
+      <c r="AI27">
+        <v>0.16</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO27">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -9363,10 +10107,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12239,6 +12983,253 @@
       </c>
       <c r="AO25" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27">
+        <v>0.06</v>
+      </c>
+      <c r="O27">
+        <v>0.19</v>
+      </c>
+      <c r="P27">
+        <v>0.25</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27">
+        <v>0.25</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27">
+        <v>0.22</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27">
+        <v>0.25</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27">
+        <v>0.25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27">
+        <v>0.2</v>
+      </c>
+      <c r="AJ27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>0.12</v>
+      </c>
+      <c r="AO27">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -12248,10 +13239,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:AO28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15495,6 +16486,253 @@
         <v>41</v>
       </c>
       <c r="AO28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" t="s">
+        <v>81</v>
+      </c>
+      <c r="X29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>0.08</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>0.12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30">
+        <v>0.19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30">
+        <v>0.25</v>
+      </c>
+      <c r="N30">
+        <v>0.25</v>
+      </c>
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30">
+        <v>0.25</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30">
+        <v>0.25</v>
+      </c>
+      <c r="W30" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30">
+        <v>0.25</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF30">
+        <v>0.25</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ30">
+        <v>0.25</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN30">
+        <v>0.12</v>
+      </c>
+      <c r="AO30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15505,10 +16743,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19124,6 +20362,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>0.25</v>
+      </c>
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33">
+        <v>0.21</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33">
+        <v>0.25</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33">
+        <v>0.25</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33">
+        <v>0.25</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -19134,10 +20619,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22753,6 +24238,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>0.01</v>
+      </c>
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33">
+        <v>0.17</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33">
+        <v>0.25</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -22763,10 +24495,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26382,6 +28114,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>0.06</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>0.19</v>
+      </c>
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33">
+        <v>0.06</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33">
+        <v>0.25</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33">
+        <v>0.19</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -26392,10 +28371,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30011,6 +31990,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>0.18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>0.25</v>
+      </c>
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33">
+        <v>0.22</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33">
+        <v>0.25</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -30021,10 +32247,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33640,6 +35866,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33">
+        <v>0.08</v>
+      </c>
+      <c r="M33">
+        <v>0.17</v>
+      </c>
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33">
+        <v>0.01</v>
+      </c>
+      <c r="AM33">
+        <v>0.24</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -33650,10 +36123,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37269,6 +39742,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33">
+        <v>0.25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33">
+        <v>0.06</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM33">
+        <v>0.25</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -37279,10 +39999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40154,6 +42874,253 @@
         <v>41</v>
       </c>
       <c r="AO25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>0.13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27">
+        <v>0.09</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -40164,10 +43131,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43783,6 +46750,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33">
+        <v>0.25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM33">
+        <v>0.25</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -43793,10 +47007,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:AO31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47412,6 +50626,253 @@
         <v>41</v>
       </c>
       <c r="AO31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33">
+        <v>0.25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33">
+        <v>0.25</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM33">
+        <v>0.25</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -47422,10 +50883,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50297,6 +53758,253 @@
         <v>41</v>
       </c>
       <c r="AO25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>0.04</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>0.11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27">
+        <v>0.25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27">
+        <v>0.05</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27">
+        <v>0.03</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -50307,10 +54015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53182,6 +56890,253 @@
         <v>41</v>
       </c>
       <c r="AO25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27">
+        <v>0.03</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27">
+        <v>0.11</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27">
+        <v>0.25</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27">
+        <v>0.25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27">
+        <v>0.25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27">
+        <v>0.04</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27">
+        <v>0.13</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -53192,10 +57147,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56067,6 +60022,253 @@
         <v>0.12</v>
       </c>
       <c r="AO25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>0.02</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.03</v>
+      </c>
+      <c r="F27">
+        <v>0.24</v>
+      </c>
+      <c r="G27">
+        <v>0.01</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>0.01</v>
+      </c>
+      <c r="K27">
+        <v>0.17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27">
+        <v>0.23</v>
+      </c>
+      <c r="Q27">
+        <v>0.02</v>
+      </c>
+      <c r="R27">
+        <v>0.25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27">
+        <v>0.09</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27">
+        <v>0.01</v>
+      </c>
+      <c r="X27">
+        <v>0.03</v>
+      </c>
+      <c r="Y27">
+        <v>0.22</v>
+      </c>
+      <c r="Z27">
+        <v>0.22</v>
+      </c>
+      <c r="AA27">
+        <v>0.03</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27">
+        <v>0.25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27">
+        <v>0.25</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27">
+        <v>0.25</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>0.12</v>
+      </c>
+      <c r="AO27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -56077,10 +60279,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58952,6 +63154,253 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AO25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>0.02</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.06</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27">
+        <v>0.25</v>
+      </c>
+      <c r="R27">
+        <v>0.25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27">
+        <v>0.25</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27">
+        <v>0.25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27">
+        <v>0.25</v>
+      </c>
+      <c r="Z27">
+        <v>0.23</v>
+      </c>
+      <c r="AA27">
+        <v>0.02</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27">
+        <v>0.25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27">
+        <v>0.25</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27">
+        <v>0.25</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27">
+        <v>0.24</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>0.25</v>
+      </c>
+      <c r="AO27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -58962,10 +63411,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61837,6 +66286,253 @@
         <v>0.25</v>
       </c>
       <c r="AO25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>0.02</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27">
+        <v>0.25</v>
+      </c>
+      <c r="R27">
+        <v>0.23</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27">
+        <v>0.25</v>
+      </c>
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27">
+        <v>0.25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27">
+        <v>0.25</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27">
+        <v>0.25</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27">
+        <v>0.25</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27">
+        <v>0.25</v>
+      </c>
+      <c r="AH27">
+        <v>0.24</v>
+      </c>
+      <c r="AI27">
+        <v>0.01</v>
+      </c>
+      <c r="AJ27">
+        <v>0.02</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27">
+        <v>0.25</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>0.25</v>
+      </c>
+      <c r="AO27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -61847,10 +66543,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64723,6 +69419,253 @@
       </c>
       <c r="AO25">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27">
+        <v>0.25</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27">
+        <v>0.25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U27">
+        <v>0.11</v>
+      </c>
+      <c r="V27">
+        <v>0.19</v>
+      </c>
+      <c r="W27">
+        <v>0.06</v>
+      </c>
+      <c r="X27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27">
+        <v>0.25</v>
+      </c>
+      <c r="Z27">
+        <v>0.25</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0.15</v>
+      </c>
+      <c r="AC27">
+        <v>0.1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27">
+        <v>0.12</v>
+      </c>
+      <c r="AG27">
+        <v>0.13</v>
+      </c>
+      <c r="AH27">
+        <v>0.25</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27">
+        <v>0.21</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>0.25</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -64732,10 +69675,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AO25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67610,6 +72553,253 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27">
+        <v>0.06</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27">
+        <v>0.18</v>
+      </c>
+      <c r="J27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>0.25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27">
+        <v>0.25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27">
+        <v>0.22</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27">
+        <v>0.25</v>
+      </c>
+      <c r="V27">
+        <v>0.09</v>
+      </c>
+      <c r="W27">
+        <v>0.16</v>
+      </c>
+      <c r="X27">
+        <v>0.1</v>
+      </c>
+      <c r="Y27">
+        <v>0.15</v>
+      </c>
+      <c r="Z27">
+        <v>0.25</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27">
+        <v>0.25</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27">
+        <v>0.25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27">
+        <v>0.25</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN27">
+        <v>0.05</v>
+      </c>
+      <c r="AO27">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
